--- a/Team-Data/2009-10/4-4-2009-10.xlsx
+++ b/Team-Data/2009-10/4-4-2009-10.xlsx
@@ -50,7 +50,6 @@
       <right style="thin"/>
       <top style="thin"/>
       <bottom style="thin"/>
-      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
@@ -66,6 +65,74 @@
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -666,22 +733,22 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="E2" t="n">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F2" t="n">
         <v>27</v>
       </c>
       <c r="G2" t="n">
-        <v>0.64</v>
+        <v>0.645</v>
       </c>
       <c r="H2" t="n">
         <v>48.5</v>
       </c>
       <c r="I2" t="n">
-        <v>38.7</v>
+        <v>38.8</v>
       </c>
       <c r="J2" t="n">
         <v>83.09999999999999</v>
@@ -696,13 +763,13 @@
         <v>17.8</v>
       </c>
       <c r="N2" t="n">
-        <v>0.36</v>
+        <v>0.362</v>
       </c>
       <c r="O2" t="n">
         <v>17.8</v>
       </c>
       <c r="P2" t="n">
-        <v>23.4</v>
+        <v>23.5</v>
       </c>
       <c r="Q2" t="n">
         <v>0.758</v>
@@ -714,16 +781,16 @@
         <v>29.9</v>
       </c>
       <c r="T2" t="n">
-        <v>41.8</v>
+        <v>41.7</v>
       </c>
       <c r="U2" t="n">
-        <v>21.7</v>
+        <v>21.8</v>
       </c>
       <c r="V2" t="n">
         <v>11.9</v>
       </c>
       <c r="W2" t="n">
-        <v>7.1</v>
+        <v>7.3</v>
       </c>
       <c r="X2" t="n">
         <v>4.9</v>
@@ -732,25 +799,25 @@
         <v>4.4</v>
       </c>
       <c r="Z2" t="n">
-        <v>19.8</v>
+        <v>19.9</v>
       </c>
       <c r="AA2" t="n">
         <v>19.3</v>
       </c>
       <c r="AB2" t="n">
-        <v>101.5</v>
+        <v>101.8</v>
       </c>
       <c r="AC2" t="n">
         <v>4.6</v>
       </c>
       <c r="AD2" t="n">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="AE2" t="n">
         <v>8</v>
       </c>
       <c r="AF2" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="AG2" t="n">
         <v>8</v>
@@ -759,10 +826,10 @@
         <v>8</v>
       </c>
       <c r="AI2" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AJ2" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AK2" t="n">
         <v>10</v>
@@ -777,7 +844,7 @@
         <v>9</v>
       </c>
       <c r="AO2" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AP2" t="n">
         <v>22</v>
@@ -786,13 +853,13 @@
         <v>17</v>
       </c>
       <c r="AR2" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AS2" t="n">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="AT2" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AU2" t="n">
         <v>10</v>
@@ -801,25 +868,25 @@
         <v>1</v>
       </c>
       <c r="AW2" t="n">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="AX2" t="n">
         <v>16</v>
       </c>
       <c r="AY2" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="AZ2" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="BA2" t="n">
         <v>28</v>
       </c>
       <c r="BB2" t="n">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="BC2" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="BD2" t="n">
         <v>10</v>
@@ -831,7 +898,7 @@
       </c>
       <c r="BF2" t="inlineStr">
         <is>
-          <t>4-4-2009-10</t>
+          <t>2010-04-04</t>
         </is>
       </c>
     </row>
@@ -848,43 +915,43 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="E3" t="n">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F3" t="n">
         <v>28</v>
       </c>
       <c r="G3" t="n">
-        <v>0.622</v>
+        <v>0.627</v>
       </c>
       <c r="H3" t="n">
         <v>48.3</v>
       </c>
       <c r="I3" t="n">
-        <v>37.2</v>
+        <v>37</v>
       </c>
       <c r="J3" t="n">
-        <v>76.8</v>
+        <v>76.7</v>
       </c>
       <c r="K3" t="n">
-        <v>0.484</v>
+        <v>0.483</v>
       </c>
       <c r="L3" t="n">
-        <v>5.9</v>
+        <v>6</v>
       </c>
       <c r="M3" t="n">
-        <v>17.3</v>
+        <v>17.5</v>
       </c>
       <c r="N3" t="n">
         <v>0.343</v>
       </c>
       <c r="O3" t="n">
-        <v>19</v>
+        <v>18.8</v>
       </c>
       <c r="P3" t="n">
-        <v>25.6</v>
+        <v>25.3</v>
       </c>
       <c r="Q3" t="n">
         <v>0.743</v>
@@ -896,7 +963,7 @@
         <v>29.9</v>
       </c>
       <c r="T3" t="n">
-        <v>38.6</v>
+        <v>38.7</v>
       </c>
       <c r="U3" t="n">
         <v>23.7</v>
@@ -908,10 +975,10 @@
         <v>8.800000000000001</v>
       </c>
       <c r="X3" t="n">
-        <v>4.9</v>
+        <v>5</v>
       </c>
       <c r="Y3" t="n">
-        <v>4.7</v>
+        <v>4.8</v>
       </c>
       <c r="Z3" t="n">
         <v>22</v>
@@ -920,22 +987,22 @@
         <v>21.6</v>
       </c>
       <c r="AB3" t="n">
-        <v>99.2</v>
+        <v>98.90000000000001</v>
       </c>
       <c r="AC3" t="n">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="AD3" t="n">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="AE3" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AF3" t="n">
         <v>9</v>
       </c>
       <c r="AG3" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AH3" t="n">
         <v>16</v>
@@ -950,28 +1017,28 @@
         <v>4</v>
       </c>
       <c r="AL3" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AM3" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AN3" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AO3" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AP3" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AQ3" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AR3" t="n">
         <v>30</v>
       </c>
       <c r="AS3" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AT3" t="n">
         <v>29</v>
@@ -980,13 +1047,13 @@
         <v>2</v>
       </c>
       <c r="AV3" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AW3" t="n">
         <v>2</v>
       </c>
       <c r="AX3" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AY3" t="n">
         <v>15</v>
@@ -1001,7 +1068,7 @@
         <v>19</v>
       </c>
       <c r="BC3" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="BD3" t="n">
         <v>10</v>
@@ -1013,7 +1080,7 @@
       </c>
       <c r="BF3" t="inlineStr">
         <is>
-          <t>4-4-2009-10</t>
+          <t>2010-04-04</t>
         </is>
       </c>
     </row>
@@ -1030,46 +1097,46 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="E4" t="n">
         <v>40</v>
       </c>
       <c r="F4" t="n">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G4" t="n">
-        <v>0.533</v>
+        <v>0.526</v>
       </c>
       <c r="H4" t="n">
         <v>48.5</v>
       </c>
       <c r="I4" t="n">
-        <v>34.9</v>
+        <v>34.8</v>
       </c>
       <c r="J4" t="n">
         <v>77</v>
       </c>
       <c r="K4" t="n">
-        <v>0.453</v>
+        <v>0.452</v>
       </c>
       <c r="L4" t="n">
-        <v>5.7</v>
+        <v>5.6</v>
       </c>
       <c r="M4" t="n">
-        <v>16.5</v>
+        <v>16.4</v>
       </c>
       <c r="N4" t="n">
-        <v>0.344</v>
+        <v>0.341</v>
       </c>
       <c r="O4" t="n">
-        <v>19.9</v>
+        <v>19.8</v>
       </c>
       <c r="P4" t="n">
         <v>26.7</v>
       </c>
       <c r="Q4" t="n">
-        <v>0.746</v>
+        <v>0.743</v>
       </c>
       <c r="R4" t="n">
         <v>10.5</v>
@@ -1078,13 +1145,13 @@
         <v>30.5</v>
       </c>
       <c r="T4" t="n">
-        <v>40.9</v>
+        <v>41</v>
       </c>
       <c r="U4" t="n">
-        <v>20.1</v>
+        <v>19.9</v>
       </c>
       <c r="V4" t="n">
-        <v>15.7</v>
+        <v>15.8</v>
       </c>
       <c r="W4" t="n">
         <v>7.8</v>
@@ -1093,7 +1160,7 @@
         <v>5.4</v>
       </c>
       <c r="Y4" t="n">
-        <v>6.2</v>
+        <v>6.3</v>
       </c>
       <c r="Z4" t="n">
         <v>19.4</v>
@@ -1102,13 +1169,13 @@
         <v>22</v>
       </c>
       <c r="AB4" t="n">
-        <v>95.40000000000001</v>
+        <v>95</v>
       </c>
       <c r="AC4" t="n">
-        <v>1.9</v>
+        <v>1.5</v>
       </c>
       <c r="AD4" t="n">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="AE4" t="n">
         <v>15</v>
@@ -1120,7 +1187,7 @@
         <v>15</v>
       </c>
       <c r="AH4" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AI4" t="n">
         <v>29</v>
@@ -1129,31 +1196,31 @@
         <v>29</v>
       </c>
       <c r="AK4" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AL4" t="n">
         <v>21</v>
       </c>
       <c r="AM4" t="n">
+        <v>22</v>
+      </c>
+      <c r="AN4" t="n">
+        <v>23</v>
+      </c>
+      <c r="AO4" t="n">
+        <v>8</v>
+      </c>
+      <c r="AP4" t="n">
+        <v>4</v>
+      </c>
+      <c r="AQ4" t="n">
+        <v>22</v>
+      </c>
+      <c r="AR4" t="n">
         <v>21</v>
       </c>
-      <c r="AN4" t="n">
-        <v>20</v>
-      </c>
-      <c r="AO4" t="n">
-        <v>5</v>
-      </c>
-      <c r="AP4" t="n">
-        <v>5</v>
-      </c>
-      <c r="AQ4" t="n">
-        <v>21</v>
-      </c>
-      <c r="AR4" t="n">
-        <v>22</v>
-      </c>
       <c r="AS4" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AT4" t="n">
         <v>22</v>
@@ -1162,7 +1229,7 @@
         <v>22</v>
       </c>
       <c r="AV4" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AW4" t="n">
         <v>8</v>
@@ -1174,7 +1241,7 @@
         <v>29</v>
       </c>
       <c r="AZ4" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="BA4" t="n">
         <v>6</v>
@@ -1183,7 +1250,7 @@
         <v>28</v>
       </c>
       <c r="BC4" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="BD4" t="n">
         <v>10</v>
@@ -1195,7 +1262,7 @@
       </c>
       <c r="BF4" t="inlineStr">
         <is>
-          <t>4-4-2009-10</t>
+          <t>2010-04-04</t>
         </is>
       </c>
     </row>
@@ -1290,10 +1357,10 @@
         <v>-2</v>
       </c>
       <c r="AD5" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="AE5" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AF5" t="n">
         <v>19</v>
@@ -1302,7 +1369,7 @@
         <v>19</v>
       </c>
       <c r="AH5" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AI5" t="n">
         <v>17</v>
@@ -1311,7 +1378,7 @@
         <v>10</v>
       </c>
       <c r="AK5" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AL5" t="n">
         <v>30</v>
@@ -1332,7 +1399,7 @@
         <v>16</v>
       </c>
       <c r="AR5" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AS5" t="n">
         <v>3</v>
@@ -1341,10 +1408,10 @@
         <v>1</v>
       </c>
       <c r="AU5" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AV5" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AW5" t="n">
         <v>23</v>
@@ -1356,10 +1423,10 @@
         <v>25</v>
       </c>
       <c r="AZ5" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="BA5" t="n">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="BB5" t="n">
         <v>23</v>
@@ -1377,7 +1444,7 @@
       </c>
       <c r="BF5" t="inlineStr">
         <is>
-          <t>4-4-2009-10</t>
+          <t>2010-04-04</t>
         </is>
       </c>
     </row>
@@ -1394,28 +1461,28 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="E6" t="n">
         <v>60</v>
       </c>
       <c r="F6" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G6" t="n">
-        <v>0.8</v>
+        <v>0.789</v>
       </c>
       <c r="H6" t="n">
         <v>48.3</v>
       </c>
       <c r="I6" t="n">
-        <v>38</v>
+        <v>37.7</v>
       </c>
       <c r="J6" t="n">
         <v>77.59999999999999</v>
       </c>
       <c r="K6" t="n">
-        <v>0.489</v>
+        <v>0.486</v>
       </c>
       <c r="L6" t="n">
         <v>7.4</v>
@@ -1433,7 +1500,7 @@
         <v>26.5</v>
       </c>
       <c r="Q6" t="n">
-        <v>0.72</v>
+        <v>0.721</v>
       </c>
       <c r="R6" t="n">
         <v>9.699999999999999</v>
@@ -1442,37 +1509,37 @@
         <v>33</v>
       </c>
       <c r="T6" t="n">
-        <v>42.7</v>
+        <v>42.6</v>
       </c>
       <c r="U6" t="n">
-        <v>22.3</v>
+        <v>22.2</v>
       </c>
       <c r="V6" t="n">
-        <v>13.9</v>
+        <v>14</v>
       </c>
       <c r="W6" t="n">
         <v>6.9</v>
       </c>
       <c r="X6" t="n">
-        <v>5.3</v>
+        <v>5.4</v>
       </c>
       <c r="Y6" t="n">
-        <v>3.8</v>
+        <v>3.9</v>
       </c>
       <c r="Z6" t="n">
-        <v>19.3</v>
+        <v>19.4</v>
       </c>
       <c r="AA6" t="n">
-        <v>20.7</v>
+        <v>20.9</v>
       </c>
       <c r="AB6" t="n">
-        <v>102.5</v>
+        <v>102</v>
       </c>
       <c r="AC6" t="n">
-        <v>7.5</v>
+        <v>7.3</v>
       </c>
       <c r="AD6" t="n">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="AE6" t="n">
         <v>1</v>
@@ -1484,7 +1551,7 @@
         <v>1</v>
       </c>
       <c r="AH6" t="n">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="AI6" t="n">
         <v>15</v>
@@ -1499,13 +1566,13 @@
         <v>8</v>
       </c>
       <c r="AM6" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AN6" t="n">
         <v>2</v>
       </c>
       <c r="AO6" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AP6" t="n">
         <v>7</v>
@@ -1520,10 +1587,10 @@
         <v>2</v>
       </c>
       <c r="AT6" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AU6" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AV6" t="n">
         <v>11</v>
@@ -1538,13 +1605,13 @@
         <v>2</v>
       </c>
       <c r="AZ6" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="BA6" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="BB6" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="BC6" t="n">
         <v>1</v>
@@ -1559,7 +1626,7 @@
       </c>
       <c r="BF6" t="inlineStr">
         <is>
-          <t>4-4-2009-10</t>
+          <t>2010-04-04</t>
         </is>
       </c>
     </row>
@@ -1576,28 +1643,28 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="E7" t="n">
         <v>50</v>
       </c>
       <c r="F7" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="G7" t="n">
-        <v>0.658</v>
+        <v>0.649</v>
       </c>
       <c r="H7" t="n">
         <v>48.5</v>
       </c>
       <c r="I7" t="n">
-        <v>38.4</v>
+        <v>38.3</v>
       </c>
       <c r="J7" t="n">
-        <v>82.8</v>
+        <v>82.7</v>
       </c>
       <c r="K7" t="n">
-        <v>0.465</v>
+        <v>0.464</v>
       </c>
       <c r="L7" t="n">
         <v>6.7</v>
@@ -1606,28 +1673,28 @@
         <v>18.2</v>
       </c>
       <c r="N7" t="n">
-        <v>0.369</v>
+        <v>0.367</v>
       </c>
       <c r="O7" t="n">
-        <v>18.2</v>
+        <v>18.4</v>
       </c>
       <c r="P7" t="n">
-        <v>22.4</v>
+        <v>22.5</v>
       </c>
       <c r="Q7" t="n">
-        <v>0.8159999999999999</v>
+        <v>0.8149999999999999</v>
       </c>
       <c r="R7" t="n">
         <v>10.3</v>
       </c>
       <c r="S7" t="n">
-        <v>31.6</v>
+        <v>31.5</v>
       </c>
       <c r="T7" t="n">
         <v>41.8</v>
       </c>
       <c r="U7" t="n">
-        <v>23.4</v>
+        <v>23.3</v>
       </c>
       <c r="V7" t="n">
         <v>13</v>
@@ -1636,7 +1703,7 @@
         <v>7.6</v>
       </c>
       <c r="X7" t="n">
-        <v>5.4</v>
+        <v>5.5</v>
       </c>
       <c r="Y7" t="n">
         <v>4.2</v>
@@ -1645,13 +1712,13 @@
         <v>19.1</v>
       </c>
       <c r="AA7" t="n">
-        <v>20</v>
+        <v>20.1</v>
       </c>
       <c r="AB7" t="n">
-        <v>101.9</v>
+        <v>101.7</v>
       </c>
       <c r="AC7" t="n">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="AD7" t="n">
         <v>2</v>
@@ -1669,22 +1736,22 @@
         <v>6</v>
       </c>
       <c r="AI7" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AJ7" t="n">
         <v>14</v>
       </c>
       <c r="AK7" t="n">
+        <v>12</v>
+      </c>
+      <c r="AL7" t="n">
         <v>11</v>
-      </c>
-      <c r="AL7" t="n">
-        <v>10</v>
       </c>
       <c r="AM7" t="n">
         <v>13</v>
       </c>
       <c r="AN7" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AO7" t="n">
         <v>17</v>
@@ -1711,13 +1778,13 @@
         <v>3</v>
       </c>
       <c r="AW7" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AX7" t="n">
         <v>6</v>
       </c>
       <c r="AY7" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AZ7" t="n">
         <v>1</v>
@@ -1726,10 +1793,10 @@
         <v>22</v>
       </c>
       <c r="BB7" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="BC7" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="BD7" t="n">
         <v>10</v>
@@ -1741,7 +1808,7 @@
       </c>
       <c r="BF7" t="inlineStr">
         <is>
-          <t>4-4-2009-10</t>
+          <t>2010-04-04</t>
         </is>
       </c>
     </row>
@@ -1758,34 +1825,34 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="E8" t="n">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F8" t="n">
         <v>27</v>
       </c>
       <c r="G8" t="n">
-        <v>0.645</v>
+        <v>0.649</v>
       </c>
       <c r="H8" t="n">
         <v>48.3</v>
       </c>
       <c r="I8" t="n">
-        <v>38.2</v>
+        <v>38.3</v>
       </c>
       <c r="J8" t="n">
-        <v>81.2</v>
+        <v>81.3</v>
       </c>
       <c r="K8" t="n">
         <v>0.471</v>
       </c>
       <c r="L8" t="n">
-        <v>6.6</v>
+        <v>6.5</v>
       </c>
       <c r="M8" t="n">
-        <v>18.3</v>
+        <v>18.2</v>
       </c>
       <c r="N8" t="n">
         <v>0.358</v>
@@ -1794,7 +1861,7 @@
         <v>23.7</v>
       </c>
       <c r="P8" t="n">
-        <v>30.7</v>
+        <v>30.6</v>
       </c>
       <c r="Q8" t="n">
         <v>0.774</v>
@@ -1803,10 +1870,10 @@
         <v>10.8</v>
       </c>
       <c r="S8" t="n">
-        <v>30.7</v>
+        <v>30.6</v>
       </c>
       <c r="T8" t="n">
-        <v>41.4</v>
+        <v>41.5</v>
       </c>
       <c r="U8" t="n">
         <v>21.1</v>
@@ -1815,7 +1882,7 @@
         <v>14</v>
       </c>
       <c r="W8" t="n">
-        <v>8.4</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="X8" t="n">
         <v>5</v>
@@ -1827,10 +1894,10 @@
         <v>22.3</v>
       </c>
       <c r="AA8" t="n">
-        <v>23.9</v>
+        <v>23.8</v>
       </c>
       <c r="AB8" t="n">
-        <v>106.7</v>
+        <v>106.8</v>
       </c>
       <c r="AC8" t="n">
         <v>4.5</v>
@@ -1839,19 +1906,19 @@
         <v>2</v>
       </c>
       <c r="AE8" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="AF8" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="AG8" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="AH8" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AI8" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AJ8" t="n">
         <v>18</v>
@@ -1878,10 +1945,10 @@
         <v>9</v>
       </c>
       <c r="AR8" t="n">
+        <v>17</v>
+      </c>
+      <c r="AS8" t="n">
         <v>16</v>
-      </c>
-      <c r="AS8" t="n">
-        <v>15</v>
       </c>
       <c r="AT8" t="n">
         <v>21</v>
@@ -1896,7 +1963,7 @@
         <v>3</v>
       </c>
       <c r="AX8" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AY8" t="n">
         <v>23</v>
@@ -1923,7 +1990,7 @@
       </c>
       <c r="BF8" t="inlineStr">
         <is>
-          <t>4-4-2009-10</t>
+          <t>2010-04-04</t>
         </is>
       </c>
     </row>
@@ -1940,16 +2007,16 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="E9" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F9" t="n">
         <v>53</v>
       </c>
       <c r="G9" t="n">
-        <v>0.293</v>
+        <v>0.303</v>
       </c>
       <c r="H9" t="n">
         <v>48.3</v>
@@ -1958,10 +2025,10 @@
         <v>35.6</v>
       </c>
       <c r="J9" t="n">
-        <v>80.8</v>
+        <v>80.7</v>
       </c>
       <c r="K9" t="n">
-        <v>0.441</v>
+        <v>0.442</v>
       </c>
       <c r="L9" t="n">
         <v>4.4</v>
@@ -1970,34 +2037,34 @@
         <v>14.2</v>
       </c>
       <c r="N9" t="n">
-        <v>0.309</v>
+        <v>0.31</v>
       </c>
       <c r="O9" t="n">
         <v>17.7</v>
       </c>
       <c r="P9" t="n">
-        <v>24.3</v>
+        <v>24.4</v>
       </c>
       <c r="Q9" t="n">
-        <v>0.727</v>
+        <v>0.725</v>
       </c>
       <c r="R9" t="n">
-        <v>13.1</v>
+        <v>13</v>
       </c>
       <c r="S9" t="n">
         <v>27.6</v>
       </c>
       <c r="T9" t="n">
-        <v>40.7</v>
+        <v>40.6</v>
       </c>
       <c r="U9" t="n">
         <v>19.2</v>
       </c>
       <c r="V9" t="n">
-        <v>13.7</v>
+        <v>13.6</v>
       </c>
       <c r="W9" t="n">
-        <v>7.1</v>
+        <v>7</v>
       </c>
       <c r="X9" t="n">
         <v>3.9</v>
@@ -2006,7 +2073,7 @@
         <v>4.9</v>
       </c>
       <c r="Z9" t="n">
-        <v>22.4</v>
+        <v>22.5</v>
       </c>
       <c r="AA9" t="n">
         <v>20.8</v>
@@ -2015,22 +2082,22 @@
         <v>93.3</v>
       </c>
       <c r="AC9" t="n">
-        <v>-6.1</v>
+        <v>-5.7</v>
       </c>
       <c r="AD9" t="n">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="AE9" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AF9" t="n">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="AG9" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AH9" t="n">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="AI9" t="n">
         <v>28</v>
@@ -2042,7 +2109,7 @@
         <v>27</v>
       </c>
       <c r="AL9" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AM9" t="n">
         <v>28</v>
@@ -2051,7 +2118,7 @@
         <v>30</v>
       </c>
       <c r="AO9" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AP9" t="n">
         <v>16</v>
@@ -2075,7 +2142,7 @@
         <v>9</v>
       </c>
       <c r="AW9" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AX9" t="n">
         <v>27</v>
@@ -2087,7 +2154,7 @@
         <v>26</v>
       </c>
       <c r="BA9" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="BB9" t="n">
         <v>29</v>
@@ -2105,7 +2172,7 @@
       </c>
       <c r="BF9" t="inlineStr">
         <is>
-          <t>4-4-2009-10</t>
+          <t>2010-04-04</t>
         </is>
       </c>
     </row>
@@ -2125,13 +2192,13 @@
         <v>75</v>
       </c>
       <c r="E10" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F10" t="n">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="G10" t="n">
-        <v>0.307</v>
+        <v>0.293</v>
       </c>
       <c r="H10" t="n">
         <v>48.1</v>
@@ -2146,13 +2213,13 @@
         <v>0.47</v>
       </c>
       <c r="L10" t="n">
-        <v>7.6</v>
+        <v>7.5</v>
       </c>
       <c r="M10" t="n">
-        <v>20.5</v>
+        <v>20.3</v>
       </c>
       <c r="N10" t="n">
-        <v>0.371</v>
+        <v>0.369</v>
       </c>
       <c r="O10" t="n">
         <v>19.9</v>
@@ -2161,19 +2228,19 @@
         <v>25.4</v>
       </c>
       <c r="Q10" t="n">
-        <v>0.782</v>
+        <v>0.781</v>
       </c>
       <c r="R10" t="n">
         <v>9.300000000000001</v>
       </c>
       <c r="S10" t="n">
-        <v>29.2</v>
+        <v>29.1</v>
       </c>
       <c r="T10" t="n">
         <v>38.4</v>
       </c>
       <c r="U10" t="n">
-        <v>22.4</v>
+        <v>22.3</v>
       </c>
       <c r="V10" t="n">
         <v>14.9</v>
@@ -2182,7 +2249,7 @@
         <v>9.300000000000001</v>
       </c>
       <c r="X10" t="n">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
       <c r="Y10" t="n">
         <v>5</v>
@@ -2194,22 +2261,22 @@
         <v>21.5</v>
       </c>
       <c r="AB10" t="n">
-        <v>108.9</v>
+        <v>108.8</v>
       </c>
       <c r="AC10" t="n">
         <v>-3.8</v>
       </c>
       <c r="AD10" t="n">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="AE10" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AF10" t="n">
         <v>25</v>
       </c>
       <c r="AG10" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AH10" t="n">
         <v>24</v>
@@ -2221,7 +2288,7 @@
         <v>1</v>
       </c>
       <c r="AK10" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AL10" t="n">
         <v>7</v>
@@ -2230,13 +2297,13 @@
         <v>7</v>
       </c>
       <c r="AN10" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AO10" t="n">
         <v>7</v>
       </c>
       <c r="AP10" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AQ10" t="n">
         <v>4</v>
@@ -2275,7 +2342,7 @@
         <v>2</v>
       </c>
       <c r="BC10" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="BD10" t="n">
         <v>10</v>
@@ -2287,7 +2354,7 @@
       </c>
       <c r="BF10" t="inlineStr">
         <is>
-          <t>4-4-2009-10</t>
+          <t>2010-04-04</t>
         </is>
       </c>
     </row>
@@ -2304,28 +2371,28 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="E11" t="n">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F11" t="n">
         <v>37</v>
       </c>
       <c r="G11" t="n">
-        <v>0.5</v>
+        <v>0.507</v>
       </c>
       <c r="H11" t="n">
         <v>48.6</v>
       </c>
       <c r="I11" t="n">
-        <v>37.6</v>
+        <v>37.5</v>
       </c>
       <c r="J11" t="n">
-        <v>84.40000000000001</v>
+        <v>84.3</v>
       </c>
       <c r="K11" t="n">
-        <v>0.445</v>
+        <v>0.444</v>
       </c>
       <c r="L11" t="n">
         <v>7.8</v>
@@ -2343,7 +2410,7 @@
         <v>24.7</v>
       </c>
       <c r="Q11" t="n">
-        <v>0.768</v>
+        <v>0.77</v>
       </c>
       <c r="R11" t="n">
         <v>12</v>
@@ -2352,7 +2419,7 @@
         <v>30.3</v>
       </c>
       <c r="T11" t="n">
-        <v>42.3</v>
+        <v>42.2</v>
       </c>
       <c r="U11" t="n">
         <v>21.5</v>
@@ -2361,28 +2428,28 @@
         <v>14.5</v>
       </c>
       <c r="W11" t="n">
-        <v>6.9</v>
+        <v>7</v>
       </c>
       <c r="X11" t="n">
         <v>3.8</v>
       </c>
       <c r="Y11" t="n">
-        <v>6.5</v>
+        <v>6.6</v>
       </c>
       <c r="Z11" t="n">
-        <v>20.8</v>
+        <v>20.9</v>
       </c>
       <c r="AA11" t="n">
-        <v>22.5</v>
+        <v>22.6</v>
       </c>
       <c r="AB11" t="n">
-        <v>101.9</v>
+        <v>101.8</v>
       </c>
       <c r="AC11" t="n">
-        <v>-0.6</v>
+        <v>-0.3</v>
       </c>
       <c r="AD11" t="n">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="AE11" t="n">
         <v>17</v>
@@ -2403,19 +2470,19 @@
         <v>4</v>
       </c>
       <c r="AK11" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AL11" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AM11" t="n">
         <v>4</v>
       </c>
       <c r="AN11" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AO11" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AP11" t="n">
         <v>13</v>
@@ -2424,22 +2491,22 @@
         <v>11</v>
       </c>
       <c r="AR11" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AS11" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AT11" t="n">
         <v>12</v>
       </c>
       <c r="AU11" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AV11" t="n">
         <v>17</v>
       </c>
       <c r="AW11" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AX11" t="n">
         <v>28</v>
@@ -2454,10 +2521,10 @@
         <v>2</v>
       </c>
       <c r="BB11" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="BC11" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="BD11" t="n">
         <v>10</v>
@@ -2469,7 +2536,7 @@
       </c>
       <c r="BF11" t="inlineStr">
         <is>
-          <t>4-4-2009-10</t>
+          <t>2010-04-04</t>
         </is>
       </c>
     </row>
@@ -2489,34 +2556,34 @@
         <v>76</v>
       </c>
       <c r="E12" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F12" t="n">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="G12" t="n">
-        <v>0.382</v>
+        <v>0.368</v>
       </c>
       <c r="H12" t="n">
         <v>48.1</v>
       </c>
       <c r="I12" t="n">
-        <v>36.6</v>
+        <v>36.5</v>
       </c>
       <c r="J12" t="n">
-        <v>83.2</v>
+        <v>83</v>
       </c>
       <c r="K12" t="n">
-        <v>0.44</v>
+        <v>0.439</v>
       </c>
       <c r="L12" t="n">
         <v>7.9</v>
       </c>
       <c r="M12" t="n">
-        <v>22.9</v>
+        <v>22.8</v>
       </c>
       <c r="N12" t="n">
-        <v>0.346</v>
+        <v>0.345</v>
       </c>
       <c r="O12" t="n">
         <v>19.1</v>
@@ -2525,25 +2592,25 @@
         <v>24.6</v>
       </c>
       <c r="Q12" t="n">
-        <v>0.775</v>
+        <v>0.776</v>
       </c>
       <c r="R12" t="n">
         <v>9.5</v>
       </c>
       <c r="S12" t="n">
-        <v>32.2</v>
+        <v>32.1</v>
       </c>
       <c r="T12" t="n">
-        <v>41.7</v>
+        <v>41.6</v>
       </c>
       <c r="U12" t="n">
-        <v>21</v>
+        <v>20.9</v>
       </c>
       <c r="V12" t="n">
-        <v>15.1</v>
+        <v>15.2</v>
       </c>
       <c r="W12" t="n">
-        <v>7.2</v>
+        <v>7.1</v>
       </c>
       <c r="X12" t="n">
         <v>5.4</v>
@@ -2552,19 +2619,19 @@
         <v>5.1</v>
       </c>
       <c r="Z12" t="n">
-        <v>22.7</v>
+        <v>22.8</v>
       </c>
       <c r="AA12" t="n">
-        <v>20.8</v>
+        <v>20.9</v>
       </c>
       <c r="AB12" t="n">
-        <v>100.2</v>
+        <v>99.90000000000001</v>
       </c>
       <c r="AC12" t="n">
-        <v>-3.1</v>
+        <v>-3.7</v>
       </c>
       <c r="AD12" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="AE12" t="n">
         <v>21</v>
@@ -2576,13 +2643,13 @@
         <v>21</v>
       </c>
       <c r="AH12" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AI12" t="n">
         <v>22</v>
       </c>
       <c r="AJ12" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AK12" t="n">
         <v>28</v>
@@ -2597,7 +2664,7 @@
         <v>17</v>
       </c>
       <c r="AO12" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AP12" t="n">
         <v>14</v>
@@ -2612,22 +2679,22 @@
         <v>5</v>
       </c>
       <c r="AT12" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AU12" t="n">
         <v>17</v>
       </c>
       <c r="AV12" t="n">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="AW12" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AX12" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AY12" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AZ12" t="n">
         <v>29</v>
@@ -2651,7 +2718,7 @@
       </c>
       <c r="BF12" t="inlineStr">
         <is>
-          <t>4-4-2009-10</t>
+          <t>2010-04-04</t>
         </is>
       </c>
     </row>
@@ -2668,16 +2735,16 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="E13" t="n">
         <v>27</v>
       </c>
       <c r="F13" t="n">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="G13" t="n">
-        <v>0.36</v>
+        <v>0.355</v>
       </c>
       <c r="H13" t="n">
         <v>48.1</v>
@@ -2686,46 +2753,46 @@
         <v>36.3</v>
       </c>
       <c r="J13" t="n">
-        <v>80.40000000000001</v>
+        <v>80.3</v>
       </c>
       <c r="K13" t="n">
-        <v>0.451</v>
+        <v>0.452</v>
       </c>
       <c r="L13" t="n">
-        <v>5.9</v>
+        <v>5.8</v>
       </c>
       <c r="M13" t="n">
-        <v>17.8</v>
+        <v>17.6</v>
       </c>
       <c r="N13" t="n">
-        <v>0.331</v>
+        <v>0.333</v>
       </c>
       <c r="O13" t="n">
-        <v>17.1</v>
+        <v>17</v>
       </c>
       <c r="P13" t="n">
-        <v>23.3</v>
+        <v>23.2</v>
       </c>
       <c r="Q13" t="n">
-        <v>0.733</v>
+        <v>0.731</v>
       </c>
       <c r="R13" t="n">
-        <v>11.5</v>
+        <v>11.4</v>
       </c>
       <c r="S13" t="n">
         <v>30.3</v>
       </c>
       <c r="T13" t="n">
-        <v>41.8</v>
+        <v>41.7</v>
       </c>
       <c r="U13" t="n">
-        <v>21.8</v>
+        <v>22</v>
       </c>
       <c r="V13" t="n">
         <v>15.7</v>
       </c>
       <c r="W13" t="n">
-        <v>6.4</v>
+        <v>6.5</v>
       </c>
       <c r="X13" t="n">
         <v>5.7</v>
@@ -2734,7 +2801,7 @@
         <v>4.5</v>
       </c>
       <c r="Z13" t="n">
-        <v>19.3</v>
+        <v>19.5</v>
       </c>
       <c r="AA13" t="n">
         <v>19.6</v>
@@ -2743,10 +2810,10 @@
         <v>95.5</v>
       </c>
       <c r="AC13" t="n">
-        <v>-6.4</v>
+        <v>-6.3</v>
       </c>
       <c r="AD13" t="n">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="AE13" t="n">
         <v>22</v>
@@ -2767,7 +2834,7 @@
         <v>22</v>
       </c>
       <c r="AK13" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AL13" t="n">
         <v>20</v>
@@ -2791,7 +2858,7 @@
         <v>13</v>
       </c>
       <c r="AS13" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AT13" t="n">
         <v>16</v>
@@ -2803,16 +2870,16 @@
         <v>28</v>
       </c>
       <c r="AW13" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AX13" t="n">
         <v>2</v>
       </c>
       <c r="AY13" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AZ13" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="BA13" t="n">
         <v>26</v>
@@ -2833,7 +2900,7 @@
       </c>
       <c r="BF13" t="inlineStr">
         <is>
-          <t>4-4-2009-10</t>
+          <t>2010-04-04</t>
         </is>
       </c>
     </row>
@@ -2853,19 +2920,19 @@
         <v>76</v>
       </c>
       <c r="E14" t="n">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F14" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G14" t="n">
-        <v>0.711</v>
+        <v>0.724</v>
       </c>
       <c r="H14" t="n">
         <v>48.4</v>
       </c>
       <c r="I14" t="n">
-        <v>38.5</v>
+        <v>38.6</v>
       </c>
       <c r="J14" t="n">
         <v>83.8</v>
@@ -2877,37 +2944,37 @@
         <v>6.5</v>
       </c>
       <c r="M14" t="n">
-        <v>19.1</v>
+        <v>19</v>
       </c>
       <c r="N14" t="n">
         <v>0.343</v>
       </c>
       <c r="O14" t="n">
-        <v>18.5</v>
+        <v>18.7</v>
       </c>
       <c r="P14" t="n">
-        <v>24.1</v>
+        <v>24.4</v>
       </c>
       <c r="Q14" t="n">
-        <v>0.767</v>
+        <v>0.766</v>
       </c>
       <c r="R14" t="n">
-        <v>11.6</v>
+        <v>11.7</v>
       </c>
       <c r="S14" t="n">
-        <v>32.6</v>
+        <v>32.7</v>
       </c>
       <c r="T14" t="n">
-        <v>44.2</v>
+        <v>44.4</v>
       </c>
       <c r="U14" t="n">
-        <v>21.2</v>
+        <v>21.1</v>
       </c>
       <c r="V14" t="n">
-        <v>13.4</v>
+        <v>13.5</v>
       </c>
       <c r="W14" t="n">
-        <v>7.6</v>
+        <v>7.7</v>
       </c>
       <c r="X14" t="n">
         <v>4.8</v>
@@ -2919,16 +2986,16 @@
         <v>19.6</v>
       </c>
       <c r="AA14" t="n">
-        <v>21.1</v>
+        <v>21.2</v>
       </c>
       <c r="AB14" t="n">
-        <v>102.1</v>
+        <v>102.4</v>
       </c>
       <c r="AC14" t="n">
-        <v>5.1</v>
+        <v>5.4</v>
       </c>
       <c r="AD14" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="AE14" t="n">
         <v>2</v>
@@ -2958,19 +3025,19 @@
         <v>10</v>
       </c>
       <c r="AN14" t="n">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="AO14" t="n">
         <v>16</v>
       </c>
       <c r="AP14" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="AQ14" t="n">
         <v>12</v>
       </c>
       <c r="AR14" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="AS14" t="n">
         <v>4</v>
@@ -2979,19 +3046,19 @@
         <v>2</v>
       </c>
       <c r="AU14" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AV14" t="n">
         <v>6</v>
       </c>
       <c r="AW14" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AX14" t="n">
         <v>18</v>
       </c>
       <c r="AY14" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="AZ14" t="n">
         <v>6</v>
@@ -3000,7 +3067,7 @@
         <v>13</v>
       </c>
       <c r="BB14" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="BC14" t="n">
         <v>4</v>
@@ -3015,7 +3082,7 @@
       </c>
       <c r="BF14" t="inlineStr">
         <is>
-          <t>4-4-2009-10</t>
+          <t>2010-04-04</t>
         </is>
       </c>
     </row>
@@ -3047,13 +3114,13 @@
         <v>48.6</v>
       </c>
       <c r="I15" t="n">
-        <v>39.6</v>
+        <v>39.5</v>
       </c>
       <c r="J15" t="n">
-        <v>84.09999999999999</v>
+        <v>84</v>
       </c>
       <c r="K15" t="n">
-        <v>0.471</v>
+        <v>0.47</v>
       </c>
       <c r="L15" t="n">
         <v>4.4</v>
@@ -3062,22 +3129,22 @@
         <v>12.7</v>
       </c>
       <c r="N15" t="n">
-        <v>0.346</v>
+        <v>0.343</v>
       </c>
       <c r="O15" t="n">
-        <v>19.5</v>
+        <v>19.4</v>
       </c>
       <c r="P15" t="n">
-        <v>26.6</v>
+        <v>26.5</v>
       </c>
       <c r="Q15" t="n">
-        <v>0.734</v>
+        <v>0.733</v>
       </c>
       <c r="R15" t="n">
-        <v>13.1</v>
+        <v>13.2</v>
       </c>
       <c r="S15" t="n">
-        <v>30.6</v>
+        <v>30.5</v>
       </c>
       <c r="T15" t="n">
         <v>43.7</v>
@@ -3089,40 +3156,40 @@
         <v>15.3</v>
       </c>
       <c r="W15" t="n">
-        <v>8</v>
+        <v>7.9</v>
       </c>
       <c r="X15" t="n">
         <v>4.9</v>
       </c>
       <c r="Y15" t="n">
-        <v>6.1</v>
+        <v>6</v>
       </c>
       <c r="Z15" t="n">
         <v>20.1</v>
       </c>
       <c r="AA15" t="n">
-        <v>22.4</v>
+        <v>22.3</v>
       </c>
       <c r="AB15" t="n">
-        <v>103.1</v>
+        <v>102.8</v>
       </c>
       <c r="AC15" t="n">
-        <v>-0.3</v>
+        <v>-0.4</v>
       </c>
       <c r="AD15" t="n">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="AE15" t="n">
         <v>16</v>
       </c>
       <c r="AF15" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AG15" t="n">
         <v>16</v>
       </c>
       <c r="AH15" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AI15" t="n">
         <v>3</v>
@@ -3131,16 +3198,16 @@
         <v>5</v>
       </c>
       <c r="AK15" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AL15" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AM15" t="n">
         <v>30</v>
       </c>
       <c r="AN15" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AO15" t="n">
         <v>9</v>
@@ -3170,13 +3237,13 @@
         <v>7</v>
       </c>
       <c r="AX15" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AY15" t="n">
         <v>28</v>
       </c>
       <c r="AZ15" t="n">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="BA15" t="n">
         <v>3</v>
@@ -3185,7 +3252,7 @@
         <v>6</v>
       </c>
       <c r="BC15" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="BD15" t="n">
         <v>10</v>
@@ -3197,7 +3264,7 @@
       </c>
       <c r="BF15" t="inlineStr">
         <is>
-          <t>4-4-2009-10</t>
+          <t>2010-04-04</t>
         </is>
       </c>
     </row>
@@ -3214,46 +3281,46 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="E16" t="n">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F16" t="n">
         <v>34</v>
       </c>
       <c r="G16" t="n">
-        <v>0.553</v>
+        <v>0.5580000000000001</v>
       </c>
       <c r="H16" t="n">
         <v>48.4</v>
       </c>
       <c r="I16" t="n">
-        <v>36.1</v>
+        <v>36.2</v>
       </c>
       <c r="J16" t="n">
-        <v>79.3</v>
+        <v>79.40000000000001</v>
       </c>
       <c r="K16" t="n">
-        <v>0.455</v>
+        <v>0.456</v>
       </c>
       <c r="L16" t="n">
         <v>6</v>
       </c>
       <c r="M16" t="n">
-        <v>17.4</v>
+        <v>17.3</v>
       </c>
       <c r="N16" t="n">
-        <v>0.345</v>
+        <v>0.346</v>
       </c>
       <c r="O16" t="n">
-        <v>17.8</v>
+        <v>17.7</v>
       </c>
       <c r="P16" t="n">
-        <v>23.7</v>
+        <v>23.6</v>
       </c>
       <c r="Q16" t="n">
-        <v>0.751</v>
+        <v>0.752</v>
       </c>
       <c r="R16" t="n">
         <v>10.6</v>
@@ -3268,10 +3335,10 @@
         <v>18.9</v>
       </c>
       <c r="V16" t="n">
-        <v>13.1</v>
+        <v>13.2</v>
       </c>
       <c r="W16" t="n">
-        <v>7.3</v>
+        <v>7.2</v>
       </c>
       <c r="X16" t="n">
         <v>5.7</v>
@@ -3280,16 +3347,16 @@
         <v>4.4</v>
       </c>
       <c r="Z16" t="n">
-        <v>21</v>
+        <v>20.9</v>
       </c>
       <c r="AA16" t="n">
         <v>20</v>
       </c>
       <c r="AB16" t="n">
-        <v>95.90000000000001</v>
+        <v>96.2</v>
       </c>
       <c r="AC16" t="n">
-        <v>1.9</v>
+        <v>2.2</v>
       </c>
       <c r="AD16" t="n">
         <v>2</v>
@@ -3304,28 +3371,28 @@
         <v>13</v>
       </c>
       <c r="AH16" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AI16" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AJ16" t="n">
         <v>25</v>
       </c>
       <c r="AK16" t="n">
+        <v>17</v>
+      </c>
+      <c r="AL16" t="n">
+        <v>18</v>
+      </c>
+      <c r="AM16" t="n">
+        <v>17</v>
+      </c>
+      <c r="AN16" t="n">
+        <v>16</v>
+      </c>
+      <c r="AO16" t="n">
         <v>20</v>
-      </c>
-      <c r="AL16" t="n">
-        <v>17</v>
-      </c>
-      <c r="AM16" t="n">
-        <v>16</v>
-      </c>
-      <c r="AN16" t="n">
-        <v>19</v>
-      </c>
-      <c r="AO16" t="n">
-        <v>19</v>
       </c>
       <c r="AP16" t="n">
         <v>20</v>
@@ -3337,7 +3404,7 @@
         <v>19</v>
       </c>
       <c r="AS16" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AT16" t="n">
         <v>14</v>
@@ -3349,25 +3416,25 @@
         <v>4</v>
       </c>
       <c r="AW16" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="AX16" t="n">
         <v>4</v>
       </c>
       <c r="AY16" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="AZ16" t="n">
         <v>19</v>
       </c>
       <c r="BA16" t="n">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="BB16" t="n">
         <v>25</v>
       </c>
       <c r="BC16" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="BD16" t="n">
         <v>10</v>
@@ -3379,7 +3446,7 @@
       </c>
       <c r="BF16" t="inlineStr">
         <is>
-          <t>4-4-2009-10</t>
+          <t>2010-04-04</t>
         </is>
       </c>
     </row>
@@ -3474,22 +3541,22 @@
         <v>1.6</v>
       </c>
       <c r="AD17" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="AE17" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AF17" t="n">
         <v>13</v>
       </c>
       <c r="AG17" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AH17" t="n">
         <v>1</v>
       </c>
       <c r="AI17" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AJ17" t="n">
         <v>2</v>
@@ -3498,7 +3565,7 @@
         <v>29</v>
       </c>
       <c r="AL17" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AM17" t="n">
         <v>5</v>
@@ -3519,10 +3586,10 @@
         <v>5</v>
       </c>
       <c r="AS17" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AT17" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AU17" t="n">
         <v>14</v>
@@ -3531,13 +3598,13 @@
         <v>7</v>
       </c>
       <c r="AW17" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AX17" t="n">
         <v>19</v>
       </c>
       <c r="AY17" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AZ17" t="n">
         <v>25</v>
@@ -3549,7 +3616,7 @@
         <v>22</v>
       </c>
       <c r="BC17" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="BD17" t="n">
         <v>10</v>
@@ -3561,7 +3628,7 @@
       </c>
       <c r="BF17" t="inlineStr">
         <is>
-          <t>4-4-2009-10</t>
+          <t>2010-04-04</t>
         </is>
       </c>
     </row>
@@ -3581,82 +3648,82 @@
         <v>76</v>
       </c>
       <c r="E18" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F18" t="n">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="G18" t="n">
-        <v>0.184</v>
+        <v>0.197</v>
       </c>
       <c r="H18" t="n">
         <v>48.3</v>
       </c>
       <c r="I18" t="n">
-        <v>38.1</v>
+        <v>38</v>
       </c>
       <c r="J18" t="n">
-        <v>84.7</v>
+        <v>84.90000000000001</v>
       </c>
       <c r="K18" t="n">
-        <v>0.449</v>
+        <v>0.448</v>
       </c>
       <c r="L18" t="n">
-        <v>4.9</v>
+        <v>4.8</v>
       </c>
       <c r="M18" t="n">
-        <v>14.3</v>
+        <v>14.2</v>
       </c>
       <c r="N18" t="n">
-        <v>0.339</v>
+        <v>0.338</v>
       </c>
       <c r="O18" t="n">
-        <v>17.3</v>
+        <v>17.2</v>
       </c>
       <c r="P18" t="n">
         <v>23.2</v>
       </c>
       <c r="Q18" t="n">
-        <v>0.744</v>
+        <v>0.742</v>
       </c>
       <c r="R18" t="n">
-        <v>11.8</v>
+        <v>11.9</v>
       </c>
       <c r="S18" t="n">
         <v>31.4</v>
       </c>
       <c r="T18" t="n">
-        <v>43.2</v>
+        <v>43.4</v>
       </c>
       <c r="U18" t="n">
         <v>19.8</v>
       </c>
       <c r="V18" t="n">
-        <v>16.3</v>
+        <v>16.2</v>
       </c>
       <c r="W18" t="n">
-        <v>7.2</v>
+        <v>7.4</v>
       </c>
       <c r="X18" t="n">
         <v>3.8</v>
       </c>
       <c r="Y18" t="n">
-        <v>5.4</v>
+        <v>5.5</v>
       </c>
       <c r="Z18" t="n">
-        <v>20.6</v>
+        <v>20.7</v>
       </c>
       <c r="AA18" t="n">
         <v>20.4</v>
       </c>
       <c r="AB18" t="n">
-        <v>98.2</v>
+        <v>98.09999999999999</v>
       </c>
       <c r="AC18" t="n">
-        <v>-9.4</v>
+        <v>-9.300000000000001</v>
       </c>
       <c r="AD18" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="AE18" t="n">
         <v>29</v>
@@ -3668,7 +3735,7 @@
         <v>29</v>
       </c>
       <c r="AH18" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="AI18" t="n">
         <v>14</v>
@@ -3677,13 +3744,13 @@
         <v>3</v>
       </c>
       <c r="AK18" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AL18" t="n">
         <v>26</v>
       </c>
       <c r="AM18" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AN18" t="n">
         <v>24</v>
@@ -3692,19 +3759,19 @@
         <v>25</v>
       </c>
       <c r="AP18" t="n">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="AQ18" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AR18" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="AS18" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AT18" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="AU18" t="n">
         <v>24</v>
@@ -3713,19 +3780,19 @@
         <v>30</v>
       </c>
       <c r="AW18" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="AX18" t="n">
         <v>29</v>
       </c>
       <c r="AY18" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AZ18" t="n">
         <v>15</v>
       </c>
       <c r="BA18" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="BB18" t="n">
         <v>21</v>
@@ -3743,7 +3810,7 @@
       </c>
       <c r="BF18" t="inlineStr">
         <is>
-          <t>4-4-2009-10</t>
+          <t>2010-04-04</t>
         </is>
       </c>
     </row>
@@ -3778,19 +3845,19 @@
         <v>34.1</v>
       </c>
       <c r="J19" t="n">
-        <v>79.5</v>
+        <v>79.59999999999999</v>
       </c>
       <c r="K19" t="n">
-        <v>0.429</v>
+        <v>0.428</v>
       </c>
       <c r="L19" t="n">
-        <v>4.7</v>
+        <v>4.6</v>
       </c>
       <c r="M19" t="n">
         <v>14.3</v>
       </c>
       <c r="N19" t="n">
-        <v>0.326</v>
+        <v>0.323</v>
       </c>
       <c r="O19" t="n">
         <v>19</v>
@@ -3799,28 +3866,28 @@
         <v>24.4</v>
       </c>
       <c r="Q19" t="n">
-        <v>0.778</v>
+        <v>0.779</v>
       </c>
       <c r="R19" t="n">
-        <v>10.8</v>
+        <v>10.9</v>
       </c>
       <c r="S19" t="n">
-        <v>28.4</v>
+        <v>28.6</v>
       </c>
       <c r="T19" t="n">
-        <v>39.2</v>
+        <v>39.5</v>
       </c>
       <c r="U19" t="n">
-        <v>18.8</v>
+        <v>18.9</v>
       </c>
       <c r="V19" t="n">
-        <v>14.3</v>
+        <v>14.4</v>
       </c>
       <c r="W19" t="n">
-        <v>7.1</v>
+        <v>7</v>
       </c>
       <c r="X19" t="n">
-        <v>4.7</v>
+        <v>4.8</v>
       </c>
       <c r="Y19" t="n">
         <v>5.1</v>
@@ -3829,16 +3896,16 @@
         <v>20.1</v>
       </c>
       <c r="AA19" t="n">
-        <v>20</v>
+        <v>20.1</v>
       </c>
       <c r="AB19" t="n">
-        <v>91.90000000000001</v>
+        <v>91.8</v>
       </c>
       <c r="AC19" t="n">
-        <v>-9.300000000000001</v>
+        <v>-9.199999999999999</v>
       </c>
       <c r="AD19" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="AE19" t="n">
         <v>30</v>
@@ -3865,19 +3932,19 @@
         <v>27</v>
       </c>
       <c r="AM19" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AN19" t="n">
         <v>29</v>
       </c>
       <c r="AO19" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AP19" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AQ19" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AR19" t="n">
         <v>16</v>
@@ -3892,22 +3959,22 @@
         <v>29</v>
       </c>
       <c r="AV19" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AW19" t="n">
+        <v>20</v>
+      </c>
+      <c r="AX19" t="n">
+        <v>20</v>
+      </c>
+      <c r="AY19" t="n">
         <v>18</v>
       </c>
-      <c r="AX19" t="n">
-        <v>22</v>
-      </c>
-      <c r="AY19" t="n">
-        <v>19</v>
-      </c>
       <c r="AZ19" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="BA19" t="n">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="BB19" t="n">
         <v>30</v>
@@ -3925,7 +3992,7 @@
       </c>
       <c r="BF19" t="inlineStr">
         <is>
-          <t>4-4-2009-10</t>
+          <t>2010-04-04</t>
         </is>
       </c>
     </row>
@@ -3942,16 +4009,16 @@
         </is>
       </c>
       <c r="D20" t="n">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="E20" t="n">
         <v>35</v>
       </c>
       <c r="F20" t="n">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G20" t="n">
-        <v>0.455</v>
+        <v>0.449</v>
       </c>
       <c r="H20" t="n">
         <v>48.4</v>
@@ -3960,46 +4027,46 @@
         <v>38.5</v>
       </c>
       <c r="J20" t="n">
-        <v>83.7</v>
+        <v>83.59999999999999</v>
       </c>
       <c r="K20" t="n">
         <v>0.461</v>
       </c>
       <c r="L20" t="n">
-        <v>7</v>
+        <v>6.9</v>
       </c>
       <c r="M20" t="n">
-        <v>19.4</v>
+        <v>19.3</v>
       </c>
       <c r="N20" t="n">
-        <v>0.359</v>
+        <v>0.36</v>
       </c>
       <c r="O20" t="n">
         <v>15.7</v>
       </c>
       <c r="P20" t="n">
-        <v>20.1</v>
+        <v>20.2</v>
       </c>
       <c r="Q20" t="n">
-        <v>0.781</v>
+        <v>0.778</v>
       </c>
       <c r="R20" t="n">
-        <v>10.6</v>
+        <v>10.5</v>
       </c>
       <c r="S20" t="n">
-        <v>29.9</v>
+        <v>29.8</v>
       </c>
       <c r="T20" t="n">
-        <v>40.4</v>
+        <v>40.3</v>
       </c>
       <c r="U20" t="n">
-        <v>22.2</v>
+        <v>22.1</v>
       </c>
       <c r="V20" t="n">
-        <v>13.4</v>
+        <v>13.3</v>
       </c>
       <c r="W20" t="n">
-        <v>7.6</v>
+        <v>7.5</v>
       </c>
       <c r="X20" t="n">
         <v>3.7</v>
@@ -4014,10 +4081,10 @@
         <v>19.4</v>
       </c>
       <c r="AB20" t="n">
-        <v>99.8</v>
+        <v>99.7</v>
       </c>
       <c r="AC20" t="n">
-        <v>-2.7</v>
+        <v>-2.9</v>
       </c>
       <c r="AD20" t="n">
         <v>1</v>
@@ -4041,13 +4108,13 @@
         <v>9</v>
       </c>
       <c r="AK20" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AL20" t="n">
         <v>9</v>
       </c>
       <c r="AM20" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AN20" t="n">
         <v>10</v>
@@ -4059,19 +4126,19 @@
         <v>30</v>
       </c>
       <c r="AQ20" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AR20" t="n">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="AS20" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AT20" t="n">
         <v>26</v>
       </c>
       <c r="AU20" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AV20" t="n">
         <v>5</v>
@@ -4107,7 +4174,7 @@
       </c>
       <c r="BF20" t="inlineStr">
         <is>
-          <t>4-4-2009-10</t>
+          <t>2010-04-04</t>
         </is>
       </c>
     </row>
@@ -4127,34 +4194,34 @@
         <v>75</v>
       </c>
       <c r="E21" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F21" t="n">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="G21" t="n">
-        <v>0.36</v>
+        <v>0.347</v>
       </c>
       <c r="H21" t="n">
         <v>48.5</v>
       </c>
       <c r="I21" t="n">
-        <v>38.2</v>
+        <v>38.1</v>
       </c>
       <c r="J21" t="n">
         <v>83.90000000000001</v>
       </c>
       <c r="K21" t="n">
-        <v>0.455</v>
+        <v>0.454</v>
       </c>
       <c r="L21" t="n">
         <v>8.9</v>
       </c>
       <c r="M21" t="n">
-        <v>25.9</v>
+        <v>26</v>
       </c>
       <c r="N21" t="n">
-        <v>0.344</v>
+        <v>0.342</v>
       </c>
       <c r="O21" t="n">
         <v>16.5</v>
@@ -4175,13 +4242,13 @@
         <v>40.5</v>
       </c>
       <c r="U21" t="n">
-        <v>21.6</v>
+        <v>21.5</v>
       </c>
       <c r="V21" t="n">
         <v>14.1</v>
       </c>
       <c r="W21" t="n">
-        <v>7.3</v>
+        <v>7.2</v>
       </c>
       <c r="X21" t="n">
         <v>3.9</v>
@@ -4196,34 +4263,34 @@
         <v>19.2</v>
       </c>
       <c r="AB21" t="n">
-        <v>101.9</v>
+        <v>101.6</v>
       </c>
       <c r="AC21" t="n">
-        <v>-3.3</v>
+        <v>-3.7</v>
       </c>
       <c r="AD21" t="n">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="AE21" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AF21" t="n">
         <v>22</v>
       </c>
       <c r="AG21" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AH21" t="n">
         <v>4</v>
       </c>
       <c r="AI21" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AJ21" t="n">
         <v>7</v>
       </c>
       <c r="AK21" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AL21" t="n">
         <v>2</v>
@@ -4232,7 +4299,7 @@
         <v>2</v>
       </c>
       <c r="AN21" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AO21" t="n">
         <v>28</v>
@@ -4244,37 +4311,37 @@
         <v>7</v>
       </c>
       <c r="AR21" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AS21" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AT21" t="n">
         <v>25</v>
       </c>
       <c r="AU21" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AV21" t="n">
         <v>13</v>
       </c>
       <c r="AW21" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AX21" t="n">
         <v>26</v>
       </c>
       <c r="AY21" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AZ21" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="BA21" t="n">
         <v>29</v>
       </c>
       <c r="BB21" t="n">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="BC21" t="n">
         <v>22</v>
@@ -4289,7 +4356,7 @@
       </c>
       <c r="BF21" t="inlineStr">
         <is>
-          <t>4-4-2009-10</t>
+          <t>2010-04-04</t>
         </is>
       </c>
     </row>
@@ -4321,10 +4388,10 @@
         <v>48.3</v>
       </c>
       <c r="I22" t="n">
-        <v>37.2</v>
+        <v>37.1</v>
       </c>
       <c r="J22" t="n">
-        <v>80.59999999999999</v>
+        <v>80.40000000000001</v>
       </c>
       <c r="K22" t="n">
         <v>0.462</v>
@@ -4336,7 +4403,7 @@
         <v>14.6</v>
       </c>
       <c r="N22" t="n">
-        <v>0.335</v>
+        <v>0.337</v>
       </c>
       <c r="O22" t="n">
         <v>21.5</v>
@@ -4345,19 +4412,19 @@
         <v>26.7</v>
       </c>
       <c r="Q22" t="n">
-        <v>0.804</v>
+        <v>0.803</v>
       </c>
       <c r="R22" t="n">
-        <v>11.7</v>
+        <v>11.6</v>
       </c>
       <c r="S22" t="n">
         <v>31.9</v>
       </c>
       <c r="T22" t="n">
-        <v>43.6</v>
+        <v>43.5</v>
       </c>
       <c r="U22" t="n">
-        <v>20</v>
+        <v>19.9</v>
       </c>
       <c r="V22" t="n">
         <v>15</v>
@@ -4372,19 +4439,19 @@
         <v>4.7</v>
       </c>
       <c r="Z22" t="n">
-        <v>21.1</v>
+        <v>21</v>
       </c>
       <c r="AA22" t="n">
         <v>21.3</v>
       </c>
       <c r="AB22" t="n">
-        <v>100.9</v>
+        <v>100.7</v>
       </c>
       <c r="AC22" t="n">
         <v>3.7</v>
       </c>
       <c r="AD22" t="n">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="AE22" t="n">
         <v>9</v>
@@ -4396,7 +4463,7 @@
         <v>9</v>
       </c>
       <c r="AH22" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AI22" t="n">
         <v>20</v>
@@ -4420,13 +4487,13 @@
         <v>2</v>
       </c>
       <c r="AP22" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AQ22" t="n">
         <v>2</v>
       </c>
       <c r="AR22" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="AS22" t="n">
         <v>6</v>
@@ -4459,7 +4526,7 @@
         <v>15</v>
       </c>
       <c r="BC22" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="BD22" t="n">
         <v>10</v>
@@ -4471,7 +4538,7 @@
       </c>
       <c r="BF22" t="inlineStr">
         <is>
-          <t>4-4-2009-10</t>
+          <t>2010-04-04</t>
         </is>
       </c>
     </row>
@@ -4503,13 +4570,13 @@
         <v>48.1</v>
       </c>
       <c r="I23" t="n">
-        <v>36.1</v>
+        <v>36.2</v>
       </c>
       <c r="J23" t="n">
         <v>77.8</v>
       </c>
       <c r="K23" t="n">
-        <v>0.464</v>
+        <v>0.465</v>
       </c>
       <c r="L23" t="n">
         <v>10.1</v>
@@ -4518,13 +4585,13 @@
         <v>27.3</v>
       </c>
       <c r="N23" t="n">
-        <v>0.369</v>
+        <v>0.37</v>
       </c>
       <c r="O23" t="n">
-        <v>19.4</v>
+        <v>19.3</v>
       </c>
       <c r="P23" t="n">
-        <v>26.8</v>
+        <v>26.7</v>
       </c>
       <c r="Q23" t="n">
         <v>0.723</v>
@@ -4542,16 +4609,16 @@
         <v>19.3</v>
       </c>
       <c r="V23" t="n">
-        <v>14.1</v>
+        <v>14.2</v>
       </c>
       <c r="W23" t="n">
         <v>6.2</v>
       </c>
       <c r="X23" t="n">
-        <v>5.6</v>
+        <v>5.5</v>
       </c>
       <c r="Y23" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="Z23" t="n">
         <v>19.9</v>
@@ -4560,13 +4627,13 @@
         <v>22.3</v>
       </c>
       <c r="AB23" t="n">
-        <v>101.7</v>
+        <v>101.8</v>
       </c>
       <c r="AC23" t="n">
         <v>6.8</v>
       </c>
       <c r="AD23" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="AE23" t="n">
         <v>3</v>
@@ -4581,13 +4648,13 @@
         <v>25</v>
       </c>
       <c r="AI23" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AJ23" t="n">
         <v>27</v>
       </c>
       <c r="AK23" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AL23" t="n">
         <v>1</v>
@@ -4596,13 +4663,13 @@
         <v>1</v>
       </c>
       <c r="AN23" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="AO23" t="n">
         <v>10</v>
       </c>
       <c r="AP23" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AQ23" t="n">
         <v>29</v>
@@ -4614,7 +4681,7 @@
         <v>1</v>
       </c>
       <c r="AT23" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AU23" t="n">
         <v>25</v>
@@ -4632,13 +4699,13 @@
         <v>1</v>
       </c>
       <c r="AZ23" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="BA23" t="n">
         <v>4</v>
       </c>
       <c r="BB23" t="n">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="BC23" t="n">
         <v>2</v>
@@ -4653,7 +4720,7 @@
       </c>
       <c r="BF23" t="inlineStr">
         <is>
-          <t>4-4-2009-10</t>
+          <t>2010-04-04</t>
         </is>
       </c>
     </row>
@@ -4670,16 +4737,16 @@
         </is>
       </c>
       <c r="D24" t="n">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="E24" t="n">
         <v>26</v>
       </c>
       <c r="F24" t="n">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G24" t="n">
-        <v>0.347</v>
+        <v>0.342</v>
       </c>
       <c r="H24" t="n">
         <v>48.3</v>
@@ -4688,28 +4755,28 @@
         <v>37.4</v>
       </c>
       <c r="J24" t="n">
-        <v>82.09999999999999</v>
+        <v>82</v>
       </c>
       <c r="K24" t="n">
-        <v>0.455</v>
+        <v>0.456</v>
       </c>
       <c r="L24" t="n">
         <v>5.5</v>
       </c>
       <c r="M24" t="n">
-        <v>16.4</v>
+        <v>16.5</v>
       </c>
       <c r="N24" t="n">
-        <v>0.334</v>
+        <v>0.335</v>
       </c>
       <c r="O24" t="n">
-        <v>16.9</v>
+        <v>17</v>
       </c>
       <c r="P24" t="n">
-        <v>22.2</v>
+        <v>22.3</v>
       </c>
       <c r="Q24" t="n">
-        <v>0.762</v>
+        <v>0.761</v>
       </c>
       <c r="R24" t="n">
         <v>11.7</v>
@@ -4718,10 +4785,10 @@
         <v>29.8</v>
       </c>
       <c r="T24" t="n">
-        <v>41.6</v>
+        <v>41.5</v>
       </c>
       <c r="U24" t="n">
-        <v>20.7</v>
+        <v>20.6</v>
       </c>
       <c r="V24" t="n">
         <v>14.6</v>
@@ -4733,7 +4800,7 @@
         <v>5.4</v>
       </c>
       <c r="Y24" t="n">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
       <c r="Z24" t="n">
         <v>20.4</v>
@@ -4742,16 +4809,16 @@
         <v>18.8</v>
       </c>
       <c r="AB24" t="n">
-        <v>97.09999999999999</v>
+        <v>97.2</v>
       </c>
       <c r="AC24" t="n">
-        <v>-3.7</v>
+        <v>-3.9</v>
       </c>
       <c r="AD24" t="n">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="AE24" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AF24" t="n">
         <v>24</v>
@@ -4763,7 +4830,7 @@
         <v>15</v>
       </c>
       <c r="AI24" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AJ24" t="n">
         <v>15</v>
@@ -4775,7 +4842,7 @@
         <v>22</v>
       </c>
       <c r="AM24" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AN24" t="n">
         <v>26</v>
@@ -4790,10 +4857,10 @@
         <v>15</v>
       </c>
       <c r="AR24" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AS24" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AT24" t="n">
         <v>20</v>
@@ -4805,13 +4872,13 @@
         <v>18</v>
       </c>
       <c r="AW24" t="n">
+        <v>4</v>
+      </c>
+      <c r="AX24" t="n">
+        <v>8</v>
+      </c>
+      <c r="AY24" t="n">
         <v>5</v>
-      </c>
-      <c r="AX24" t="n">
-        <v>9</v>
-      </c>
-      <c r="AY24" t="n">
-        <v>4</v>
       </c>
       <c r="AZ24" t="n">
         <v>13</v>
@@ -4823,7 +4890,7 @@
         <v>24</v>
       </c>
       <c r="BC24" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="BD24" t="n">
         <v>10</v>
@@ -4835,7 +4902,7 @@
       </c>
       <c r="BF24" t="inlineStr">
         <is>
-          <t>4-4-2009-10</t>
+          <t>2010-04-04</t>
         </is>
       </c>
     </row>
@@ -4852,16 +4919,16 @@
         </is>
       </c>
       <c r="D25" t="n">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="E25" t="n">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F25" t="n">
         <v>27</v>
       </c>
       <c r="G25" t="n">
-        <v>0.645</v>
+        <v>0.649</v>
       </c>
       <c r="H25" t="n">
         <v>48.1</v>
@@ -4870,19 +4937,19 @@
         <v>40.8</v>
       </c>
       <c r="J25" t="n">
-        <v>83</v>
+        <v>82.90000000000001</v>
       </c>
       <c r="K25" t="n">
         <v>0.492</v>
       </c>
       <c r="L25" t="n">
-        <v>8.9</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="M25" t="n">
-        <v>21.6</v>
+        <v>21.5</v>
       </c>
       <c r="N25" t="n">
-        <v>0.41</v>
+        <v>0.411</v>
       </c>
       <c r="O25" t="n">
         <v>19.9</v>
@@ -4891,19 +4958,19 @@
         <v>25.8</v>
       </c>
       <c r="Q25" t="n">
-        <v>0.773</v>
+        <v>0.772</v>
       </c>
       <c r="R25" t="n">
-        <v>11.2</v>
+        <v>11.1</v>
       </c>
       <c r="S25" t="n">
-        <v>31.9</v>
+        <v>31.8</v>
       </c>
       <c r="T25" t="n">
-        <v>43.1</v>
+        <v>43</v>
       </c>
       <c r="U25" t="n">
-        <v>23.5</v>
+        <v>23.4</v>
       </c>
       <c r="V25" t="n">
         <v>14.8</v>
@@ -4927,22 +4994,22 @@
         <v>110.4</v>
       </c>
       <c r="AC25" t="n">
-        <v>4.6</v>
+        <v>4.5</v>
       </c>
       <c r="AD25" t="n">
         <v>2</v>
       </c>
       <c r="AE25" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="AF25" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="AG25" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="AH25" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AI25" t="n">
         <v>1</v>
@@ -4951,7 +5018,7 @@
         <v>13</v>
       </c>
       <c r="AK25" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AL25" t="n">
         <v>3</v>
@@ -4963,7 +5030,7 @@
         <v>1</v>
       </c>
       <c r="AO25" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AP25" t="n">
         <v>9</v>
@@ -4975,7 +5042,7 @@
         <v>15</v>
       </c>
       <c r="AS25" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AT25" t="n">
         <v>8</v>
@@ -4993,7 +5060,7 @@
         <v>13</v>
       </c>
       <c r="AY25" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="AZ25" t="n">
         <v>16</v>
@@ -5005,7 +5072,7 @@
         <v>1</v>
       </c>
       <c r="BC25" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="BD25" t="n">
         <v>10</v>
@@ -5017,7 +5084,7 @@
       </c>
       <c r="BF25" t="inlineStr">
         <is>
-          <t>4-4-2009-10</t>
+          <t>2010-04-04</t>
         </is>
       </c>
     </row>
@@ -5034,16 +5101,16 @@
         </is>
       </c>
       <c r="D26" t="n">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="E26" t="n">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F26" t="n">
         <v>30</v>
       </c>
       <c r="G26" t="n">
-        <v>0.605</v>
+        <v>0.61</v>
       </c>
       <c r="H26" t="n">
         <v>48.5</v>
@@ -5052,19 +5119,19 @@
         <v>36.2</v>
       </c>
       <c r="J26" t="n">
-        <v>78.59999999999999</v>
+        <v>78.5</v>
       </c>
       <c r="K26" t="n">
-        <v>0.461</v>
+        <v>0.46</v>
       </c>
       <c r="L26" t="n">
         <v>6</v>
       </c>
       <c r="M26" t="n">
-        <v>16.9</v>
+        <v>17</v>
       </c>
       <c r="N26" t="n">
-        <v>0.354</v>
+        <v>0.356</v>
       </c>
       <c r="O26" t="n">
         <v>19.9</v>
@@ -5073,40 +5140,40 @@
         <v>25.1</v>
       </c>
       <c r="Q26" t="n">
-        <v>0.791</v>
+        <v>0.792</v>
       </c>
       <c r="R26" t="n">
         <v>11.2</v>
       </c>
       <c r="S26" t="n">
-        <v>28.8</v>
+        <v>28.9</v>
       </c>
       <c r="T26" t="n">
-        <v>39.9</v>
+        <v>40.1</v>
       </c>
       <c r="U26" t="n">
         <v>20.3</v>
       </c>
       <c r="V26" t="n">
-        <v>12.2</v>
+        <v>12.3</v>
       </c>
       <c r="W26" t="n">
-        <v>6.4</v>
+        <v>6.5</v>
       </c>
       <c r="X26" t="n">
-        <v>4.2</v>
+        <v>4.3</v>
       </c>
       <c r="Y26" t="n">
-        <v>4.1</v>
+        <v>4</v>
       </c>
       <c r="Z26" t="n">
-        <v>20.8</v>
+        <v>20.9</v>
       </c>
       <c r="AA26" t="n">
-        <v>21.7</v>
+        <v>21.8</v>
       </c>
       <c r="AB26" t="n">
-        <v>98.3</v>
+        <v>98.2</v>
       </c>
       <c r="AC26" t="n">
         <v>3.4</v>
@@ -5115,7 +5182,7 @@
         <v>2</v>
       </c>
       <c r="AE26" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AF26" t="n">
         <v>12</v>
@@ -5124,19 +5191,19 @@
         <v>12</v>
       </c>
       <c r="AH26" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AI26" t="n">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="AJ26" t="n">
         <v>26</v>
       </c>
       <c r="AK26" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AL26" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AM26" t="n">
         <v>20</v>
@@ -5145,7 +5212,7 @@
         <v>13</v>
       </c>
       <c r="AO26" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="AP26" t="n">
         <v>12</v>
@@ -5169,7 +5236,7 @@
         <v>2</v>
       </c>
       <c r="AW26" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AX26" t="n">
         <v>24</v>
@@ -5199,7 +5266,7 @@
       </c>
       <c r="BF26" t="inlineStr">
         <is>
-          <t>4-4-2009-10</t>
+          <t>2010-04-04</t>
         </is>
       </c>
     </row>
@@ -5216,28 +5283,28 @@
         </is>
       </c>
       <c r="D27" t="n">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="E27" t="n">
         <v>24</v>
       </c>
       <c r="F27" t="n">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="G27" t="n">
-        <v>0.316</v>
+        <v>0.312</v>
       </c>
       <c r="H27" t="n">
         <v>48.5</v>
       </c>
       <c r="I27" t="n">
-        <v>38.2</v>
+        <v>38.1</v>
       </c>
       <c r="J27" t="n">
-        <v>84</v>
+        <v>83.90000000000001</v>
       </c>
       <c r="K27" t="n">
-        <v>0.455</v>
+        <v>0.454</v>
       </c>
       <c r="L27" t="n">
         <v>6</v>
@@ -5246,28 +5313,28 @@
         <v>17.2</v>
       </c>
       <c r="N27" t="n">
-        <v>0.35</v>
+        <v>0.348</v>
       </c>
       <c r="O27" t="n">
-        <v>17.5</v>
+        <v>17.6</v>
       </c>
       <c r="P27" t="n">
         <v>24.3</v>
       </c>
       <c r="Q27" t="n">
-        <v>0.723</v>
+        <v>0.724</v>
       </c>
       <c r="R27" t="n">
-        <v>12</v>
+        <v>11.9</v>
       </c>
       <c r="S27" t="n">
         <v>30.9</v>
       </c>
       <c r="T27" t="n">
-        <v>42.9</v>
+        <v>42.8</v>
       </c>
       <c r="U27" t="n">
-        <v>20.6</v>
+        <v>20.5</v>
       </c>
       <c r="V27" t="n">
         <v>15.2</v>
@@ -5288,10 +5355,10 @@
         <v>20.4</v>
       </c>
       <c r="AB27" t="n">
-        <v>99.90000000000001</v>
+        <v>99.8</v>
       </c>
       <c r="AC27" t="n">
-        <v>-4.3</v>
+        <v>-4.4</v>
       </c>
       <c r="AD27" t="n">
         <v>2</v>
@@ -5315,28 +5382,28 @@
         <v>6</v>
       </c>
       <c r="AK27" t="n">
+        <v>20</v>
+      </c>
+      <c r="AL27" t="n">
         <v>19</v>
-      </c>
-      <c r="AL27" t="n">
-        <v>16</v>
       </c>
       <c r="AM27" t="n">
         <v>18</v>
       </c>
       <c r="AN27" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AO27" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AP27" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AQ27" t="n">
         <v>28</v>
       </c>
       <c r="AR27" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AS27" t="n">
         <v>14</v>
@@ -5345,10 +5412,10 @@
         <v>9</v>
       </c>
       <c r="AU27" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AV27" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AW27" t="n">
         <v>22</v>
@@ -5363,7 +5430,7 @@
         <v>27</v>
       </c>
       <c r="BA27" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="BB27" t="n">
         <v>17</v>
@@ -5381,7 +5448,7 @@
       </c>
       <c r="BF27" t="inlineStr">
         <is>
-          <t>4-4-2009-10</t>
+          <t>2010-04-04</t>
         </is>
       </c>
     </row>
@@ -5413,10 +5480,10 @@
         <v>48.3</v>
       </c>
       <c r="I28" t="n">
-        <v>38.4</v>
+        <v>38.5</v>
       </c>
       <c r="J28" t="n">
-        <v>81.2</v>
+        <v>81.3</v>
       </c>
       <c r="K28" t="n">
         <v>0.473</v>
@@ -5431,13 +5498,13 @@
         <v>0.363</v>
       </c>
       <c r="O28" t="n">
-        <v>17.6</v>
+        <v>17.5</v>
       </c>
       <c r="P28" t="n">
-        <v>23.6</v>
+        <v>23.5</v>
       </c>
       <c r="Q28" t="n">
-        <v>0.746</v>
+        <v>0.745</v>
       </c>
       <c r="R28" t="n">
         <v>10.8</v>
@@ -5449,10 +5516,10 @@
         <v>42.7</v>
       </c>
       <c r="U28" t="n">
-        <v>22.2</v>
+        <v>22.3</v>
       </c>
       <c r="V28" t="n">
-        <v>13.6</v>
+        <v>13.5</v>
       </c>
       <c r="W28" t="n">
         <v>6.2</v>
@@ -5470,16 +5537,16 @@
         <v>20.2</v>
       </c>
       <c r="AB28" t="n">
-        <v>101</v>
+        <v>101.2</v>
       </c>
       <c r="AC28" t="n">
         <v>5</v>
       </c>
       <c r="AD28" t="n">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="AE28" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="AF28" t="n">
         <v>11</v>
@@ -5488,10 +5555,10 @@
         <v>11</v>
       </c>
       <c r="AH28" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AI28" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AJ28" t="n">
         <v>17</v>
@@ -5500,7 +5567,7 @@
         <v>6</v>
       </c>
       <c r="AL28" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AM28" t="n">
         <v>11</v>
@@ -5509,7 +5576,7 @@
         <v>7</v>
       </c>
       <c r="AO28" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AP28" t="n">
         <v>21</v>
@@ -5521,13 +5588,13 @@
         <v>18</v>
       </c>
       <c r="AS28" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AT28" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AU28" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="AV28" t="n">
         <v>8</v>
@@ -5536,10 +5603,10 @@
         <v>26</v>
       </c>
       <c r="AX28" t="n">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="AY28" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AZ28" t="n">
         <v>14</v>
@@ -5563,7 +5630,7 @@
       </c>
       <c r="BF28" t="inlineStr">
         <is>
-          <t>4-4-2009-10</t>
+          <t>2010-04-04</t>
         </is>
       </c>
     </row>
@@ -5583,13 +5650,13 @@
         <v>75</v>
       </c>
       <c r="E29" t="n">
+        <v>38</v>
+      </c>
+      <c r="F29" t="n">
         <v>37</v>
       </c>
-      <c r="F29" t="n">
-        <v>38</v>
-      </c>
       <c r="G29" t="n">
-        <v>0.493</v>
+        <v>0.507</v>
       </c>
       <c r="H29" t="n">
         <v>48.3</v>
@@ -5598,10 +5665,10 @@
         <v>38.7</v>
       </c>
       <c r="J29" t="n">
-        <v>80.59999999999999</v>
+        <v>80.40000000000001</v>
       </c>
       <c r="K29" t="n">
-        <v>0.48</v>
+        <v>0.482</v>
       </c>
       <c r="L29" t="n">
         <v>6.4</v>
@@ -5613,31 +5680,31 @@
         <v>0.373</v>
       </c>
       <c r="O29" t="n">
-        <v>20.1</v>
+        <v>20</v>
       </c>
       <c r="P29" t="n">
-        <v>26.3</v>
+        <v>26.2</v>
       </c>
       <c r="Q29" t="n">
-        <v>0.764</v>
+        <v>0.763</v>
       </c>
       <c r="R29" t="n">
-        <v>10</v>
+        <v>9.9</v>
       </c>
       <c r="S29" t="n">
         <v>30.6</v>
       </c>
       <c r="T29" t="n">
-        <v>40.6</v>
+        <v>40.5</v>
       </c>
       <c r="U29" t="n">
-        <v>21.7</v>
+        <v>21.8</v>
       </c>
       <c r="V29" t="n">
         <v>13.7</v>
       </c>
       <c r="W29" t="n">
-        <v>5.8</v>
+        <v>5.7</v>
       </c>
       <c r="X29" t="n">
         <v>4.8</v>
@@ -5646,37 +5713,37 @@
         <v>4.4</v>
       </c>
       <c r="Z29" t="n">
-        <v>22.3</v>
+        <v>22.4</v>
       </c>
       <c r="AA29" t="n">
-        <v>21.4</v>
+        <v>21.3</v>
       </c>
       <c r="AB29" t="n">
-        <v>104</v>
+        <v>103.8</v>
       </c>
       <c r="AC29" t="n">
-        <v>-1.9</v>
+        <v>-1.8</v>
       </c>
       <c r="AD29" t="n">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="AE29" t="n">
         <v>17</v>
       </c>
       <c r="AF29" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AG29" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AH29" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AI29" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AJ29" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AK29" t="n">
         <v>5</v>
@@ -5700,10 +5767,10 @@
         <v>13</v>
       </c>
       <c r="AR29" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AS29" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AT29" t="n">
         <v>24</v>
@@ -5721,7 +5788,7 @@
         <v>21</v>
       </c>
       <c r="AY29" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="AZ29" t="n">
         <v>24</v>
@@ -5745,7 +5812,7 @@
       </c>
       <c r="BF29" t="inlineStr">
         <is>
-          <t>4-4-2009-10</t>
+          <t>2010-04-04</t>
         </is>
       </c>
     </row>
@@ -5762,16 +5829,16 @@
         </is>
       </c>
       <c r="D30" t="n">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="E30" t="n">
         <v>50</v>
       </c>
       <c r="F30" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="G30" t="n">
-        <v>0.658</v>
+        <v>0.649</v>
       </c>
       <c r="H30" t="n">
         <v>48.1</v>
@@ -5780,10 +5847,10 @@
         <v>39.3</v>
       </c>
       <c r="J30" t="n">
-        <v>79.90000000000001</v>
+        <v>80</v>
       </c>
       <c r="K30" t="n">
-        <v>0.492</v>
+        <v>0.491</v>
       </c>
       <c r="L30" t="n">
         <v>5.2</v>
@@ -5792,22 +5859,22 @@
         <v>14.5</v>
       </c>
       <c r="N30" t="n">
-        <v>0.36</v>
+        <v>0.362</v>
       </c>
       <c r="O30" t="n">
-        <v>20.1</v>
+        <v>20.2</v>
       </c>
       <c r="P30" t="n">
-        <v>27.3</v>
+        <v>27.4</v>
       </c>
       <c r="Q30" t="n">
-        <v>0.737</v>
+        <v>0.738</v>
       </c>
       <c r="R30" t="n">
-        <v>10.6</v>
+        <v>10.5</v>
       </c>
       <c r="S30" t="n">
-        <v>31.5</v>
+        <v>31.4</v>
       </c>
       <c r="T30" t="n">
         <v>42</v>
@@ -5819,7 +5886,7 @@
         <v>14.9</v>
       </c>
       <c r="W30" t="n">
-        <v>8.300000000000001</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="X30" t="n">
         <v>5</v>
@@ -5837,7 +5904,7 @@
         <v>104</v>
       </c>
       <c r="AC30" t="n">
-        <v>6</v>
+        <v>5.8</v>
       </c>
       <c r="AD30" t="n">
         <v>2</v>
@@ -5852,7 +5919,7 @@
         <v>4</v>
       </c>
       <c r="AH30" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AI30" t="n">
         <v>4</v>
@@ -5861,7 +5928,7 @@
         <v>23</v>
       </c>
       <c r="AK30" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AL30" t="n">
         <v>23</v>
@@ -5882,10 +5949,10 @@
         <v>24</v>
       </c>
       <c r="AR30" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AS30" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AT30" t="n">
         <v>13</v>
@@ -5897,7 +5964,7 @@
         <v>22</v>
       </c>
       <c r="AW30" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AX30" t="n">
         <v>12</v>
@@ -5906,7 +5973,7 @@
         <v>24</v>
       </c>
       <c r="AZ30" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="BA30" t="n">
         <v>5</v>
@@ -5927,7 +5994,7 @@
       </c>
       <c r="BF30" t="inlineStr">
         <is>
-          <t>4-4-2009-10</t>
+          <t>2010-04-04</t>
         </is>
       </c>
     </row>
@@ -5971,64 +6038,64 @@
         <v>5.2</v>
       </c>
       <c r="M31" t="n">
-        <v>15</v>
+        <v>15.1</v>
       </c>
       <c r="N31" t="n">
-        <v>0.346</v>
+        <v>0.344</v>
       </c>
       <c r="O31" t="n">
-        <v>17.7</v>
+        <v>17.6</v>
       </c>
       <c r="P31" t="n">
-        <v>23.3</v>
+        <v>23.1</v>
       </c>
       <c r="Q31" t="n">
-        <v>0.763</v>
+        <v>0.762</v>
       </c>
       <c r="R31" t="n">
-        <v>11.9</v>
+        <v>11.8</v>
       </c>
       <c r="S31" t="n">
-        <v>29.8</v>
+        <v>29.9</v>
       </c>
       <c r="T31" t="n">
-        <v>41.6</v>
+        <v>41.7</v>
       </c>
       <c r="U31" t="n">
-        <v>18.7</v>
+        <v>18.6</v>
       </c>
       <c r="V31" t="n">
-        <v>14.8</v>
+        <v>14.7</v>
       </c>
       <c r="W31" t="n">
         <v>6.1</v>
       </c>
       <c r="X31" t="n">
+        <v>5.2</v>
+      </c>
+      <c r="Y31" t="n">
         <v>5.1</v>
       </c>
-      <c r="Y31" t="n">
-        <v>5</v>
-      </c>
       <c r="Z31" t="n">
-        <v>21.3</v>
+        <v>21.5</v>
       </c>
       <c r="AA31" t="n">
-        <v>20.6</v>
+        <v>20.5</v>
       </c>
       <c r="AB31" t="n">
-        <v>95.8</v>
+        <v>95.7</v>
       </c>
       <c r="AC31" t="n">
         <v>-5.1</v>
       </c>
       <c r="AD31" t="n">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="AE31" t="n">
         <v>27</v>
       </c>
       <c r="AF31" t="n">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="AG31" t="n">
         <v>27</v>
@@ -6043,7 +6110,7 @@
         <v>16</v>
       </c>
       <c r="AK31" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AL31" t="n">
         <v>24</v>
@@ -6052,25 +6119,25 @@
         <v>23</v>
       </c>
       <c r="AN31" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="AO31" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AP31" t="n">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="AQ31" t="n">
         <v>14</v>
       </c>
       <c r="AR31" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AS31" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AT31" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AU31" t="n">
         <v>30</v>
@@ -6085,7 +6152,7 @@
         <v>11</v>
       </c>
       <c r="AY31" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="AZ31" t="n">
         <v>21</v>
@@ -6109,7 +6176,7 @@
       </c>
       <c r="BF31" t="inlineStr">
         <is>
-          <t>4-4-2009-10</t>
+          <t>2010-04-04</t>
         </is>
       </c>
     </row>
